--- a/Hardware/TrackJet_H01/Centroid.xlsx
+++ b/Hardware/TrackJet_H01/Centroid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marou\Projekty\Vedatori\TrackJet\Hardware\TrackJet_H01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A89AE04-0803-432E-85F4-B53C0362CCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606024E9-760E-4A4C-8026-A435D845536A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{39DE00AE-AB6C-4D8C-AA70-96B4C2B9DDB0}"/>
+    <workbookView xWindow="0" yWindow="765" windowWidth="28800" windowHeight="15435" xr2:uid="{39DE00AE-AB6C-4D8C-AA70-96B4C2B9DDB0}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="476">
   <si>
     <t>Val</t>
   </si>
@@ -1449,6 +1449,18 @@
   </si>
   <si>
     <t>Rotation</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>TPS61088RHLR</t>
+  </si>
+  <si>
+    <t>IC_TPS61088RHLR</t>
+  </si>
+  <si>
+    <t>-83.693000</t>
   </si>
 </sst>
 </file>
@@ -1528,7 +1540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1536,6 +1548,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -1850,16 +1865,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F4A2503-23B3-4CA8-902C-B984E70CE33A}">
-  <dimension ref="A1:G157"/>
+  <dimension ref="A1:G158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="K146" sqref="K146"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="F148" sqref="F148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -3258,8 +3275,8 @@
       <c r="E61" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>14</v>
+      <c r="F61" s="2">
+        <v>180</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>8</v>
@@ -3281,8 +3298,8 @@
       <c r="E62" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="F62" s="5" t="s">
-        <v>27</v>
+      <c r="F62" s="5">
+        <v>0</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>8</v>
@@ -3350,8 +3367,8 @@
       <c r="E65" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>18</v>
+      <c r="F65" s="2">
+        <v>270</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>8</v>
@@ -3373,8 +3390,8 @@
       <c r="E66" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="F66" s="5" t="s">
-        <v>18</v>
+      <c r="F66" s="5">
+        <v>270</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>8</v>
@@ -3396,8 +3413,8 @@
       <c r="E67" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>14</v>
+      <c r="F67" s="2">
+        <v>90</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>8</v>
@@ -3419,8 +3436,8 @@
       <c r="E68" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="F68" s="5" t="s">
-        <v>14</v>
+      <c r="F68" s="5">
+        <v>90</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>8</v>
@@ -3442,8 +3459,8 @@
       <c r="E69" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>14</v>
+      <c r="F69" s="2">
+        <v>90</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>8</v>
@@ -3465,8 +3482,8 @@
       <c r="E70" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="F70" s="5" t="s">
-        <v>14</v>
+      <c r="F70" s="5">
+        <v>90</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>8</v>
@@ -3488,8 +3505,8 @@
       <c r="E71" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F71" s="2" t="s">
-        <v>14</v>
+      <c r="F71" s="2">
+        <v>90</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>8</v>
@@ -5190,8 +5207,8 @@
       <c r="E145" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="F145" s="2" t="s">
-        <v>7</v>
+      <c r="F145" s="2">
+        <v>270</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>8</v>
@@ -5213,8 +5230,8 @@
       <c r="E146" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="F146" s="5" t="s">
-        <v>27</v>
+      <c r="F146" s="5">
+        <v>90</v>
       </c>
       <c r="G146" s="6" t="s">
         <v>8</v>
@@ -5236,8 +5253,8 @@
       <c r="E147" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="F147" s="2" t="s">
-        <v>14</v>
+      <c r="F147" s="2">
+        <v>180</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>8</v>
@@ -5259,8 +5276,8 @@
       <c r="E148" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="F148" s="5" t="s">
-        <v>14</v>
+      <c r="F148" s="5">
+        <v>90</v>
       </c>
       <c r="G148" s="6" t="s">
         <v>8</v>
@@ -5282,8 +5299,8 @@
       <c r="E149" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="F149" s="2" t="s">
-        <v>7</v>
+      <c r="F149" s="2">
+        <v>180</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>8</v>
@@ -5305,8 +5322,8 @@
       <c r="E150" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="F150" s="5" t="s">
-        <v>18</v>
+      <c r="F150" s="5">
+        <v>0</v>
       </c>
       <c r="G150" s="6" t="s">
         <v>8</v>
@@ -5328,8 +5345,8 @@
       <c r="E151" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="F151" s="2" t="s">
-        <v>18</v>
+      <c r="F151" s="2">
+        <v>0</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>8</v>
@@ -5351,8 +5368,8 @@
       <c r="E152" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="F152" s="5" t="s">
-        <v>7</v>
+      <c r="F152" s="5">
+        <v>270</v>
       </c>
       <c r="G152" s="6" t="s">
         <v>8</v>
@@ -5374,8 +5391,8 @@
       <c r="E153" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="F153" s="2" t="s">
-        <v>18</v>
+      <c r="F153" s="2">
+        <v>0</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>8</v>
@@ -5397,8 +5414,8 @@
       <c r="E154" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="F154" s="5" t="s">
-        <v>7</v>
+      <c r="F154" s="5">
+        <v>270</v>
       </c>
       <c r="G154" s="6" t="s">
         <v>8</v>
@@ -5420,8 +5437,8 @@
       <c r="E155" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="F155" s="2" t="s">
-        <v>7</v>
+      <c r="F155" s="2">
+        <v>270</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>8</v>
@@ -5443,8 +5460,8 @@
       <c r="E156" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="F156" s="5" t="s">
-        <v>18</v>
+      <c r="F156" s="5">
+        <v>0</v>
       </c>
       <c r="G156" s="6" t="s">
         <v>8</v>
@@ -5466,10 +5483,33 @@
       <c r="E157" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="F157" s="2" t="s">
-        <v>14</v>
+      <c r="F157" s="2">
+        <v>90</v>
       </c>
       <c r="G157" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="F158" s="8">
+        <v>180</v>
+      </c>
+      <c r="G158" s="9" t="s">
         <v>8</v>
       </c>
     </row>
